--- a/pcmaker/Components.xlsx
+++ b/pcmaker/Components.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bellamy\Desktop\Pc-Picker\poi\poi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9104B2EC-7D1F-4841-9705-366D667755C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F64E775-C081-433F-A916-72639595168D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3795" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21630" windowHeight="14895" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Storage!$A$1:$H$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Video Card'!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:U23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2996,17 +2992,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -3038,7 +3034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3323,7 +3319,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3336,7 +3332,7 @@
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -3365,7 +3361,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -3394,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -3423,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -3452,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3481,7 +3477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -3510,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -3597,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3655,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3771,7 +3767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3829,7 +3825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3916,7 +3912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3974,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4032,7 +4028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -4090,7 +4086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4119,7 +4115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4235,7 +4231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -4293,7 +4289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -4322,7 +4318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4351,7 +4347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -4409,7 +4405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -4438,7 +4434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -4467,7 +4463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -4496,7 +4492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -4525,7 +4521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4583,7 +4579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>132</v>
       </c>
@@ -4612,7 +4608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4641,7 +4637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -4699,7 +4695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -4757,7 +4753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -4786,7 +4782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4844,7 +4840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -4873,7 +4869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>160</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +5072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -5105,7 +5101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>157</v>
       </c>
@@ -5134,7 +5130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -5192,7 +5188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -5221,7 +5217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -5279,7 +5275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -5308,7 +5304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -5337,7 +5333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -5395,7 +5391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -5424,7 +5420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -5453,7 +5449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -5482,7 +5478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -5511,7 +5507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -5540,7 +5536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -5627,7 +5623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -5801,7 +5797,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -5830,7 +5826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -5946,7 +5942,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -5975,7 +5971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +6029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -6062,7 +6058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -6091,7 +6087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -6120,7 +6116,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -6178,7 +6174,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -6207,7 +6203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -6382,7 +6378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -6394,7 +6390,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -6420,7 +6416,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>429</v>
       </c>
@@ -6446,7 +6442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>410</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>358</v>
       </c>
@@ -6498,7 +6494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>419</v>
       </c>
@@ -6524,7 +6520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>359</v>
       </c>
@@ -6550,7 +6546,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>409</v>
       </c>
@@ -6576,7 +6572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>418</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>422</v>
       </c>
@@ -6628,7 +6624,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -6654,7 +6650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>368</v>
       </c>
@@ -6680,7 +6676,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>312</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>332</v>
       </c>
@@ -6732,7 +6728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>329</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>339</v>
       </c>
@@ -6784,7 +6780,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>337</v>
       </c>
@@ -6810,7 +6806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>375</v>
       </c>
@@ -6836,7 +6832,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>344</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>385</v>
       </c>
@@ -6888,7 +6884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>403</v>
       </c>
@@ -6914,7 +6910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>420</v>
       </c>
@@ -6940,7 +6936,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>394</v>
       </c>
@@ -6966,7 +6962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>363</v>
       </c>
@@ -7018,7 +7014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>338</v>
       </c>
@@ -7044,7 +7040,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>386</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>433</v>
       </c>
@@ -7096,7 +7092,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>365</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>369</v>
       </c>
@@ -7148,7 +7144,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>405</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>436</v>
       </c>
@@ -7200,7 +7196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>389</v>
       </c>
@@ -7226,7 +7222,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>393</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>397</v>
       </c>
@@ -7278,7 +7274,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>356</v>
       </c>
@@ -7304,7 +7300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>424</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>404</v>
       </c>
@@ -7356,7 +7352,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>396</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>380</v>
       </c>
@@ -7408,7 +7404,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>378</v>
       </c>
@@ -7434,7 +7430,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>377</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>323</v>
       </c>
@@ -7486,7 +7482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>413</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>366</v>
       </c>
@@ -7538,7 +7534,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -7564,7 +7560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>406</v>
       </c>
@@ -7590,7 +7586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>412</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>425</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>372</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>400</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>437</v>
       </c>
@@ -7720,7 +7716,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>371</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>342</v>
       </c>
@@ -7798,7 +7794,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>364</v>
       </c>
@@ -7824,7 +7820,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>350</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>325</v>
       </c>
@@ -7876,7 +7872,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>373</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>352</v>
       </c>
@@ -7928,7 +7924,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>308</v>
       </c>
@@ -7954,7 +7950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>324</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>376</v>
       </c>
@@ -8006,7 +8002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>348</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>336</v>
       </c>
@@ -8058,7 +8054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>355</v>
       </c>
@@ -8084,7 +8080,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>428</v>
       </c>
@@ -8110,7 +8106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>343</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>387</v>
       </c>
@@ -8162,7 +8158,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>322</v>
       </c>
@@ -8188,7 +8184,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>345</v>
       </c>
@@ -8214,7 +8210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>427</v>
       </c>
@@ -8240,7 +8236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>426</v>
       </c>
@@ -8266,7 +8262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>367</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>408</v>
       </c>
@@ -8318,7 +8314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>402</v>
       </c>
@@ -8344,7 +8340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>374</v>
       </c>
@@ -8370,7 +8366,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>390</v>
       </c>
@@ -8396,7 +8392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>327</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>334</v>
       </c>
@@ -8448,7 +8444,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -8474,7 +8470,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>431</v>
       </c>
@@ -8500,7 +8496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>318</v>
       </c>
@@ -8526,7 +8522,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>407</v>
       </c>
@@ -8552,7 +8548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>391</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>421</v>
       </c>
@@ -8604,7 +8600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>347</v>
       </c>
@@ -8630,7 +8626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>370</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>340</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>439</v>
       </c>
@@ -8708,7 +8704,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>438</v>
       </c>
@@ -8734,7 +8730,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>416</v>
       </c>
@@ -8760,7 +8756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -8786,7 +8782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>430</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>414</v>
       </c>
@@ -8838,7 +8834,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>399</v>
       </c>
@@ -8864,7 +8860,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>395</v>
       </c>
@@ -8890,7 +8886,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>417</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>392</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>382</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>415</v>
       </c>
@@ -8994,7 +8990,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>434</v>
       </c>
@@ -9036,7 +9032,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -9048,7 +9044,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -9074,7 +9070,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>249</v>
       </c>
@@ -9126,7 +9122,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>234</v>
       </c>
@@ -9152,7 +9148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>285</v>
       </c>
@@ -9178,7 +9174,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>259</v>
       </c>
@@ -9230,7 +9226,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>203</v>
       </c>
@@ -9256,7 +9252,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>264</v>
       </c>
@@ -9282,7 +9278,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>229</v>
       </c>
@@ -9308,7 +9304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
@@ -9334,7 +9330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>213</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>957</v>
       </c>
@@ -9412,7 +9408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>300</v>
       </c>
@@ -9438,7 +9434,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>235</v>
       </c>
@@ -9464,7 +9460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>284</v>
       </c>
@@ -9490,7 +9486,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>253</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>239</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
@@ -9568,7 +9564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>298</v>
       </c>
@@ -9594,7 +9590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>276</v>
       </c>
@@ -9620,7 +9616,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>245</v>
       </c>
@@ -9646,7 +9642,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>227</v>
       </c>
@@ -9672,7 +9668,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>289</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>208</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>246</v>
       </c>
@@ -9750,7 +9746,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>261</v>
       </c>
@@ -9776,7 +9772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>238</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>282</v>
       </c>
@@ -9828,7 +9824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>299</v>
       </c>
@@ -9880,7 +9876,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>241</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>281</v>
       </c>
@@ -9932,7 +9928,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>296</v>
       </c>
@@ -9958,7 +9954,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>296</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>218</v>
       </c>
@@ -10010,7 +10006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>273</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>279</v>
       </c>
@@ -10062,7 +10058,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>197</v>
       </c>
@@ -10088,7 +10084,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>230</v>
       </c>
@@ -10114,7 +10110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>237</v>
       </c>
@@ -10140,7 +10136,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>283</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>257</v>
       </c>
@@ -10192,7 +10188,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>287</v>
       </c>
@@ -10218,7 +10214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>252</v>
       </c>
@@ -10244,7 +10240,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>204</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>272</v>
       </c>
@@ -10296,7 +10292,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>240</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>297</v>
       </c>
@@ -10348,7 +10344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>292</v>
       </c>
@@ -10374,7 +10370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>262</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>293</v>
       </c>
@@ -10452,7 +10448,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>226</v>
       </c>
@@ -10478,7 +10474,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>215</v>
       </c>
@@ -10504,7 +10500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>236</v>
       </c>
@@ -10530,7 +10526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>251</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>224</v>
       </c>
@@ -10582,7 +10578,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>201</v>
       </c>
@@ -10608,7 +10604,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>209</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>268</v>
       </c>
@@ -10660,7 +10656,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>232</v>
       </c>
@@ -10686,7 +10682,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
@@ -10712,7 +10708,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>265</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>301</v>
       </c>
@@ -10764,7 +10760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>278</v>
       </c>
@@ -10790,7 +10786,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>228</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>216</v>
       </c>
@@ -10842,7 +10838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>271</v>
       </c>
@@ -10868,7 +10864,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -10894,7 +10890,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>242</v>
       </c>
@@ -10920,7 +10916,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>266</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>270</v>
       </c>
@@ -10972,7 +10968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>291</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>275</v>
       </c>
@@ -11024,7 +11020,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>247</v>
       </c>
@@ -11050,7 +11046,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>958</v>
       </c>
@@ -11076,7 +11072,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>205</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>193</v>
       </c>
@@ -11128,7 +11124,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>221</v>
       </c>
@@ -11154,7 +11150,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>260</v>
       </c>
@@ -11180,7 +11176,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -11206,7 +11202,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>256</v>
       </c>
@@ -11232,7 +11228,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>211</v>
       </c>
@@ -11258,7 +11254,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>290</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -11310,7 +11306,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>294</v>
       </c>
@@ -11336,7 +11332,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>288</v>
       </c>
@@ -11362,7 +11358,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>302</v>
       </c>
@@ -11388,7 +11384,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>206</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>214</v>
       </c>
@@ -11440,7 +11436,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>243</v>
       </c>
@@ -11466,7 +11462,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>233</v>
       </c>
@@ -11492,7 +11488,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>267</v>
       </c>
@@ -11518,7 +11514,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>244</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>280</v>
       </c>
@@ -11570,7 +11566,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>231</v>
       </c>
@@ -11596,7 +11592,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>295</v>
       </c>
@@ -11622,7 +11618,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>212</v>
       </c>
@@ -11648,7 +11644,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
@@ -11674,370 +11670,370 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" ht="15" customHeight="1">
+    <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" ht="15" customHeight="1">
+    <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" ht="15" customHeight="1">
+    <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" ht="15" customHeight="1">
+    <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" ht="15" customHeight="1">
+    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" ht="15" customHeight="1">
+    <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" ht="15" customHeight="1">
+    <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" ht="15" customHeight="1">
+    <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" ht="15" customHeight="1">
+    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" ht="15" customHeight="1">
+    <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" ht="15" customHeight="1">
+    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
-    <row r="135" spans="1:1" ht="15" customHeight="1">
+    <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="137" spans="1:1" ht="15" customHeight="1">
+    <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" ht="15" customHeight="1">
+    <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" ht="15" customHeight="1">
+    <row r="142" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" ht="15" customHeight="1">
+    <row r="144" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
-    <row r="145" spans="1:1" ht="15" customHeight="1">
+    <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
     </row>
-    <row r="147" spans="1:1" ht="15" customHeight="1">
+    <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" ht="15" customHeight="1">
+    <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="15" customHeight="1">
+    <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="15" customHeight="1">
+    <row r="155" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" ht="15" customHeight="1">
+    <row r="157" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" ht="15" customHeight="1">
+    <row r="159" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
-    <row r="161" spans="1:1" ht="15" customHeight="1">
+    <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
     </row>
-    <row r="163" spans="1:1" ht="15" customHeight="1">
+    <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
     </row>
-    <row r="165" spans="1:1" ht="15" customHeight="1">
+    <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" ht="15" customHeight="1">
+    <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" ht="15" customHeight="1">
+    <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" ht="15" customHeight="1">
+    <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
     </row>
-    <row r="172" spans="1:1" ht="15" customHeight="1">
+    <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" ht="15" customHeight="1">
+    <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
     </row>
-    <row r="176" spans="1:1" ht="15" customHeight="1">
+    <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
     </row>
-    <row r="178" spans="1:1" ht="15" customHeight="1">
+    <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
     </row>
-    <row r="180" spans="1:1" ht="15" customHeight="1">
+    <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" ht="15" customHeight="1">
+    <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" ht="15" customHeight="1">
+    <row r="184" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" ht="15" customHeight="1">
+    <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" ht="15" customHeight="1">
+    <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" ht="15" customHeight="1"/>
-    <row r="192" spans="1:1" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="198" ht="15" customHeight="1"/>
-    <row r="200" ht="15" customHeight="1"/>
-    <row r="202" ht="15" customHeight="1"/>
-    <row r="204" ht="15" customHeight="1"/>
-    <row r="206" ht="15" customHeight="1"/>
-    <row r="208" ht="15" customHeight="1"/>
-    <row r="210" ht="15" customHeight="1"/>
-    <row r="212" ht="15" customHeight="1"/>
-    <row r="214" ht="15" customHeight="1"/>
-    <row r="216" ht="15" customHeight="1"/>
-    <row r="218" ht="15" customHeight="1"/>
-    <row r="220" ht="15" customHeight="1"/>
-    <row r="222" ht="15" customHeight="1"/>
-    <row r="224" ht="15" customHeight="1"/>
-    <row r="226" ht="15" customHeight="1"/>
-    <row r="228" ht="15" customHeight="1"/>
-    <row r="230" ht="15" customHeight="1"/>
-    <row r="232" ht="15" customHeight="1"/>
-    <row r="234" ht="15" customHeight="1"/>
-    <row r="236" ht="15" customHeight="1"/>
-    <row r="238" ht="15" customHeight="1"/>
-    <row r="240" ht="15" customHeight="1"/>
-    <row r="242" ht="15" customHeight="1"/>
-    <row r="244" ht="15" customHeight="1"/>
-    <row r="246" ht="15" customHeight="1"/>
-    <row r="248" ht="15" customHeight="1"/>
-    <row r="250" ht="15" customHeight="1"/>
-    <row r="252" ht="15" customHeight="1"/>
-    <row r="254" ht="15" customHeight="1"/>
-    <row r="256" ht="15" customHeight="1"/>
-    <row r="258" ht="15" customHeight="1"/>
-    <row r="260" ht="15" customHeight="1"/>
-    <row r="262" ht="15" customHeight="1"/>
-    <row r="264" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
+    <row r="190" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H101" xr:uid="{64ABDF17-D10A-4192-AB06-54506101FD47}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12052,7 +12048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -12061,7 +12057,7 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -12084,7 +12080,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>822</v>
       </c>
@@ -12107,7 +12103,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>826</v>
       </c>
@@ -12130,7 +12126,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>830</v>
       </c>
@@ -12153,7 +12149,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>832</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>835</v>
       </c>
@@ -12199,7 +12195,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>836</v>
       </c>
@@ -12222,7 +12218,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>837</v>
       </c>
@@ -12245,7 +12241,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>839</v>
       </c>
@@ -12268,7 +12264,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>841</v>
       </c>
@@ -12291,7 +12287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>843</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>844</v>
       </c>
@@ -12337,7 +12333,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>845</v>
       </c>
@@ -12360,7 +12356,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>847</v>
       </c>
@@ -12383,7 +12379,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>850</v>
       </c>
@@ -12406,7 +12402,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>852</v>
       </c>
@@ -12429,7 +12425,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>853</v>
       </c>
@@ -12452,7 +12448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>854</v>
       </c>
@@ -12475,7 +12471,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>855</v>
       </c>
@@ -12498,7 +12494,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>857</v>
       </c>
@@ -12521,7 +12517,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>858</v>
       </c>
@@ -12544,7 +12540,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>860</v>
       </c>
@@ -12567,7 +12563,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>862</v>
       </c>
@@ -12590,7 +12586,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>863</v>
       </c>
@@ -12613,7 +12609,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>864</v>
       </c>
@@ -12636,7 +12632,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>865</v>
       </c>
@@ -12659,7 +12655,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>866</v>
       </c>
@@ -12682,7 +12678,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>867</v>
       </c>
@@ -12705,7 +12701,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>868</v>
       </c>
@@ -12728,7 +12724,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>869</v>
       </c>
@@ -12751,7 +12747,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>870</v>
       </c>
@@ -12774,7 +12770,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>871</v>
       </c>
@@ -12797,7 +12793,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>872</v>
       </c>
@@ -12820,7 +12816,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>873</v>
       </c>
@@ -12843,7 +12839,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>874</v>
       </c>
@@ -12866,7 +12862,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>875</v>
       </c>
@@ -12889,7 +12885,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>876</v>
       </c>
@@ -12912,7 +12908,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>878</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>879</v>
       </c>
@@ -12958,7 +12954,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>881</v>
       </c>
@@ -12981,7 +12977,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>882</v>
       </c>
@@ -13004,7 +13000,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>884</v>
       </c>
@@ -13027,7 +13023,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>885</v>
       </c>
@@ -13050,7 +13046,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>886</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>887</v>
       </c>
@@ -13096,7 +13092,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>888</v>
       </c>
@@ -13119,7 +13115,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>889</v>
       </c>
@@ -13142,7 +13138,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>890</v>
       </c>
@@ -13165,7 +13161,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>891</v>
       </c>
@@ -13188,7 +13184,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>892</v>
       </c>
@@ -13211,7 +13207,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>893</v>
       </c>
@@ -13234,7 +13230,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>894</v>
       </c>
@@ -13257,7 +13253,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>895</v>
       </c>
@@ -13280,7 +13276,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>896</v>
       </c>
@@ -13303,7 +13299,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>897</v>
       </c>
@@ -13326,7 +13322,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>898</v>
       </c>
@@ -13349,7 +13345,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>899</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>901</v>
       </c>
@@ -13395,7 +13391,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>902</v>
       </c>
@@ -13418,7 +13414,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>904</v>
       </c>
@@ -13441,7 +13437,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>906</v>
       </c>
@@ -13464,7 +13460,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>907</v>
       </c>
@@ -13487,7 +13483,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>908</v>
       </c>
@@ -13510,7 +13506,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>909</v>
       </c>
@@ -13533,7 +13529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>910</v>
       </c>
@@ -13556,7 +13552,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>911</v>
       </c>
@@ -13579,7 +13575,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>912</v>
       </c>
@@ -13602,7 +13598,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>913</v>
       </c>
@@ -13625,7 +13621,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>915</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>916</v>
       </c>
@@ -13671,7 +13667,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>917</v>
       </c>
@@ -13694,7 +13690,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>918</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>919</v>
       </c>
@@ -13740,7 +13736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>921</v>
       </c>
@@ -13763,7 +13759,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>922</v>
       </c>
@@ -13786,7 +13782,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>923</v>
       </c>
@@ -13809,7 +13805,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>924</v>
       </c>
@@ -13832,7 +13828,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>925</v>
       </c>
@@ -13855,7 +13851,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>927</v>
       </c>
@@ -13878,7 +13874,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>928</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>930</v>
       </c>
@@ -13924,7 +13920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>931</v>
       </c>
@@ -13947,7 +13943,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>932</v>
       </c>
@@ -13970,7 +13966,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>933</v>
       </c>
@@ -13993,7 +13989,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>934</v>
       </c>
@@ -14016,7 +14012,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>936</v>
       </c>
@@ -14039,7 +14035,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>938</v>
       </c>
@@ -14062,7 +14058,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>939</v>
       </c>
@@ -14085,7 +14081,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>941</v>
       </c>
@@ -14108,7 +14104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>943</v>
       </c>
@@ -14131,7 +14127,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>944</v>
       </c>
@@ -14154,7 +14150,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>945</v>
       </c>
@@ -14177,7 +14173,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>946</v>
       </c>
@@ -14200,7 +14196,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>947</v>
       </c>
@@ -14223,7 +14219,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>948</v>
       </c>
@@ -14246,7 +14242,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>949</v>
       </c>
@@ -14269,7 +14265,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>950</v>
       </c>
@@ -14292,7 +14288,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>952</v>
       </c>
@@ -14315,7 +14311,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>953</v>
       </c>
@@ -14338,7 +14334,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>954</v>
       </c>
@@ -14361,7 +14357,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>956</v>
       </c>
@@ -14386,7 +14382,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G101" xr:uid="{FE6C584A-A2BB-48DD-8301-87A51AFDD875}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14399,7 +14397,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -14411,7 +14409,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -14437,7 +14435,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>465</v>
       </c>
@@ -14463,7 +14461,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>552</v>
       </c>
@@ -14489,7 +14487,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>547</v>
       </c>
@@ -14515,7 +14513,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>565</v>
       </c>
@@ -14541,7 +14539,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>554</v>
       </c>
@@ -14567,7 +14565,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>521</v>
       </c>
@@ -14593,7 +14591,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>513</v>
       </c>
@@ -14619,7 +14617,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>545</v>
       </c>
@@ -14645,7 +14643,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>522</v>
       </c>
@@ -14671,7 +14669,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>559</v>
       </c>
@@ -14697,7 +14695,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>543</v>
       </c>
@@ -14723,7 +14721,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>503</v>
       </c>
@@ -14749,7 +14747,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>494</v>
       </c>
@@ -14775,7 +14773,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>531</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>502</v>
       </c>
@@ -14827,7 +14825,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -14853,7 +14851,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>453</v>
       </c>
@@ -14879,7 +14877,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>537</v>
       </c>
@@ -14905,7 +14903,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>458</v>
       </c>
@@ -14931,7 +14929,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>469</v>
       </c>
@@ -14957,7 +14955,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>443</v>
       </c>
@@ -14983,7 +14981,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>467</v>
       </c>
@@ -15009,7 +15007,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>493</v>
       </c>
@@ -15035,7 +15033,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>516</v>
       </c>
@@ -15061,7 +15059,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>489</v>
       </c>
@@ -15087,7 +15085,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>575</v>
       </c>
@@ -15113,7 +15111,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>518</v>
       </c>
@@ -15139,7 +15137,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>461</v>
       </c>
@@ -15165,7 +15163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>576</v>
       </c>
@@ -15191,7 +15189,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>536</v>
       </c>
@@ -15217,7 +15215,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>524</v>
       </c>
@@ -15243,7 +15241,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>555</v>
       </c>
@@ -15269,7 +15267,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>482</v>
       </c>
@@ -15295,7 +15293,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>533</v>
       </c>
@@ -15321,7 +15319,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>500</v>
       </c>
@@ -15347,7 +15345,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>558</v>
       </c>
@@ -15373,7 +15371,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>541</v>
       </c>
@@ -15399,7 +15397,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>484</v>
       </c>
@@ -15425,7 +15423,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>580</v>
       </c>
@@ -15451,7 +15449,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>505</v>
       </c>
@@ -15477,7 +15475,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>568</v>
       </c>
@@ -15503,7 +15501,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>526</v>
       </c>
@@ -15529,7 +15527,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>529</v>
       </c>
@@ -15555,7 +15553,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>566</v>
       </c>
@@ -15581,7 +15579,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>560</v>
       </c>
@@ -15607,7 +15605,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>563</v>
       </c>
@@ -15633,7 +15631,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>583</v>
       </c>
@@ -15659,7 +15657,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>556</v>
       </c>
@@ -15685,7 +15683,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>557</v>
       </c>
@@ -15711,7 +15709,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>574</v>
       </c>
@@ -15737,7 +15735,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>571</v>
       </c>
@@ -15763,7 +15761,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>488</v>
       </c>
@@ -15789,7 +15787,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>535</v>
       </c>
@@ -15815,7 +15813,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>538</v>
       </c>
@@ -15841,7 +15839,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>485</v>
       </c>
@@ -15867,7 +15865,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>486</v>
       </c>
@@ -15893,7 +15891,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>579</v>
       </c>
@@ -15919,7 +15917,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>567</v>
       </c>
@@ -15945,7 +15943,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>570</v>
       </c>
@@ -15971,7 +15969,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>509</v>
       </c>
@@ -15997,7 +15995,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>532</v>
       </c>
@@ -16023,7 +16021,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1">
+    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>527</v>
       </c>
@@ -16049,7 +16047,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>519</v>
       </c>
@@ -16075,7 +16073,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>487</v>
       </c>
@@ -16101,7 +16099,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>578</v>
       </c>
@@ -16127,7 +16125,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>553</v>
       </c>
@@ -16153,7 +16151,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>479</v>
       </c>
@@ -16179,7 +16177,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>523</v>
       </c>
@@ -16205,7 +16203,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>528</v>
       </c>
@@ -16231,7 +16229,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>581</v>
       </c>
@@ -16257,7 +16255,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>495</v>
       </c>
@@ -16283,7 +16281,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>525</v>
       </c>
@@ -16309,7 +16307,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>498</v>
       </c>
@@ -16335,7 +16333,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>471</v>
       </c>
@@ -16361,7 +16359,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>457</v>
       </c>
@@ -16387,7 +16385,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>562</v>
       </c>
@@ -16413,7 +16411,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>474</v>
       </c>
@@ -16439,7 +16437,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>468</v>
       </c>
@@ -16465,7 +16463,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>504</v>
       </c>
@@ -16491,7 +16489,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>540</v>
       </c>
@@ -16517,7 +16515,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>492</v>
       </c>
@@ -16543,7 +16541,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>501</v>
       </c>
@@ -16569,7 +16567,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>573</v>
       </c>
@@ -16595,7 +16593,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>564</v>
       </c>
@@ -16621,7 +16619,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>546</v>
       </c>
@@ -16647,7 +16645,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>530</v>
       </c>
@@ -16673,7 +16671,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>549</v>
       </c>
@@ -16699,7 +16697,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>475</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>515</v>
       </c>
@@ -16751,7 +16749,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>534</v>
       </c>
@@ -16777,7 +16775,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>544</v>
       </c>
@@ -16803,7 +16801,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>551</v>
       </c>
@@ -16829,7 +16827,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>480</v>
       </c>
@@ -16855,7 +16853,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -16881,7 +16879,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>520</v>
       </c>
@@ -16907,7 +16905,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>508</v>
       </c>
@@ -16933,7 +16931,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>542</v>
       </c>
@@ -16959,7 +16957,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>561</v>
       </c>
@@ -16985,7 +16983,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>514</v>
       </c>
@@ -17011,7 +17009,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>577</v>
       </c>
@@ -17037,19 +17035,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H101" xr:uid="{26BFD0E5-B499-41E4-AE77-D6E7B98BFE60}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17066,7 +17064,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -17079,7 +17077,7 @@
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -17114,7 +17112,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>744</v>
       </c>
@@ -17149,7 +17147,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>670</v>
       </c>
@@ -17184,7 +17182,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>747</v>
       </c>
@@ -17219,7 +17217,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>795</v>
       </c>
@@ -17254,7 +17252,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>722</v>
       </c>
@@ -17289,7 +17287,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>652</v>
       </c>
@@ -17324,7 +17322,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>702</v>
       </c>
@@ -17359,7 +17357,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>708</v>
       </c>
@@ -17394,7 +17392,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>762</v>
       </c>
@@ -17429,7 +17427,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>803</v>
       </c>
@@ -17464,7 +17462,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>758</v>
       </c>
@@ -17499,7 +17497,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>657</v>
       </c>
@@ -17534,7 +17532,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>814</v>
       </c>
@@ -17569,7 +17567,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>765</v>
       </c>
@@ -17604,7 +17602,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>687</v>
       </c>
@@ -17639,7 +17637,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>681</v>
       </c>
@@ -17674,7 +17672,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>715</v>
       </c>
@@ -17709,7 +17707,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>794</v>
       </c>
@@ -17744,7 +17742,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>790</v>
       </c>
@@ -17779,7 +17777,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -17814,7 +17812,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -17849,7 +17847,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>761</v>
       </c>
@@ -17884,7 +17882,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>591</v>
       </c>
@@ -17919,7 +17917,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>773</v>
       </c>
@@ -17954,7 +17952,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>774</v>
       </c>
@@ -17989,7 +17987,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>698</v>
       </c>
@@ -18024,7 +18022,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>816</v>
       </c>
@@ -18059,7 +18057,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>760</v>
       </c>
@@ -18094,7 +18092,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>812</v>
       </c>
@@ -18129,7 +18127,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>616</v>
       </c>
@@ -18164,7 +18162,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>779</v>
       </c>
@@ -18199,7 +18197,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>692</v>
       </c>
@@ -18234,7 +18232,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>798</v>
       </c>
@@ -18269,7 +18267,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>786</v>
       </c>
@@ -18304,7 +18302,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>750</v>
       </c>
@@ -18339,7 +18337,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>659</v>
       </c>
@@ -18374,7 +18372,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>707</v>
       </c>
@@ -18409,7 +18407,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>660</v>
       </c>
@@ -18444,7 +18442,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>739</v>
       </c>
@@ -18479,7 +18477,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>719</v>
       </c>
@@ -18514,7 +18512,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>649</v>
       </c>
@@ -18549,7 +18547,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>725</v>
       </c>
@@ -18584,7 +18582,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>699</v>
       </c>
@@ -18619,7 +18617,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>639</v>
       </c>
@@ -18654,7 +18652,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>606</v>
       </c>
@@ -18689,7 +18687,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>669</v>
       </c>
@@ -18724,7 +18722,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>629</v>
       </c>
@@ -18759,7 +18757,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>706</v>
       </c>
@@ -18794,7 +18792,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>817</v>
       </c>
@@ -18829,7 +18827,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>763</v>
       </c>
@@ -18864,7 +18862,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>738</v>
       </c>
@@ -18899,7 +18897,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>791</v>
       </c>
@@ -18934,7 +18932,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>632</v>
       </c>
@@ -18969,7 +18967,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>603</v>
       </c>
@@ -19004,7 +19002,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>685</v>
       </c>
@@ -19039,7 +19037,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>628</v>
       </c>
@@ -19074,7 +19072,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>724</v>
       </c>
@@ -19109,7 +19107,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>596</v>
       </c>
@@ -19144,7 +19142,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>688</v>
       </c>
@@ -19179,7 +19177,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>704</v>
       </c>
@@ -19214,7 +19212,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>792</v>
       </c>
@@ -19249,7 +19247,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>718</v>
       </c>
@@ -19284,7 +19282,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>686</v>
       </c>
@@ -19319,7 +19317,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>815</v>
       </c>
@@ -19354,7 +19352,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>613</v>
       </c>
@@ -19389,7 +19387,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>793</v>
       </c>
@@ -19424,7 +19422,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>598</v>
       </c>
@@ -19459,7 +19457,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>772</v>
       </c>
@@ -19494,7 +19492,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>721</v>
       </c>
@@ -19529,7 +19527,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>804</v>
       </c>
@@ -19564,7 +19562,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>621</v>
       </c>
@@ -19599,7 +19597,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>694</v>
       </c>
@@ -19634,7 +19632,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>796</v>
       </c>
@@ -19669,7 +19667,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>709</v>
       </c>
@@ -19704,7 +19702,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>743</v>
       </c>
@@ -19739,7 +19737,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>799</v>
       </c>
@@ -19774,7 +19772,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>778</v>
       </c>
@@ -19809,7 +19807,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>711</v>
       </c>
@@ -19844,7 +19842,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>717</v>
       </c>
@@ -19879,7 +19877,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>730</v>
       </c>
@@ -19914,7 +19912,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>655</v>
       </c>
@@ -19949,7 +19947,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>781</v>
       </c>
@@ -19984,7 +19982,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>766</v>
       </c>
@@ -20019,7 +20017,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>754</v>
       </c>
@@ -20054,7 +20052,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>647</v>
       </c>
@@ -20089,7 +20087,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>802</v>
       </c>
@@ -20124,7 +20122,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>764</v>
       </c>
@@ -20159,7 +20157,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>713</v>
       </c>
@@ -20194,7 +20192,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>712</v>
       </c>
@@ -20229,7 +20227,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>788</v>
       </c>
@@ -20264,7 +20262,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>785</v>
       </c>
@@ -20299,7 +20297,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>810</v>
       </c>
@@ -20334,7 +20332,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>723</v>
       </c>
@@ -20369,7 +20367,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>780</v>
       </c>
@@ -20404,7 +20402,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>751</v>
       </c>
@@ -20439,7 +20437,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>728</v>
       </c>
@@ -20474,7 +20472,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>661</v>
       </c>
@@ -20509,7 +20507,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>734</v>
       </c>
@@ -20544,7 +20542,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>690</v>
       </c>
@@ -20579,7 +20577,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>806</v>
       </c>

--- a/pcmaker/Components.xlsx
+++ b/pcmaker/Components.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F64E775-C081-433F-A916-72639595168D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70FC0B07-6677-4886-AA93-C912066153CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21630" windowHeight="14895" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21630" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Video Card'!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U23"/>
+  <oleSize ref="A1:P20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3315,7 +3315,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6376,7 +6376,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14394,7 +14396,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17060,7 +17062,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/pcmaker/Components.xlsx
+++ b/pcmaker/Components.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70FC0B07-6677-4886-AA93-C912066153CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8059ACB8-401C-4BE6-8933-E2E648E10870}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21630" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21660" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Video Card'!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P20"/>
+  <oleSize ref="A85:N102"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3315,7 +3309,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/pcmaker/Components.xlsx
+++ b/pcmaker/Components.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShIng/git/Maker/pcmaker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F177EE-6614-CF4C-9A54-695280EB6A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1B22B5C8-6D56-43B3-9FFA-9E799EFF2FDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1100" windowWidth="21640" windowHeight="14900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21675" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Video Card'!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:V20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2808,13 +2804,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -2847,7 +2843,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3132,20 +3128,20 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -3174,7 +3170,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -3203,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -3232,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -3261,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -3290,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3348,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -3377,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -3406,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3435,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -3493,7 +3489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -3522,7 +3518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -3551,7 +3547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3667,7 +3663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3696,7 +3692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3725,7 +3721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3754,7 +3750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3812,7 +3808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -3928,7 +3924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3957,7 +3953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3986,7 +3982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4015,7 +4011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -4131,7 +4127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4160,7 +4156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -4189,7 +4185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -4218,7 +4214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -4247,7 +4243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -4305,7 +4301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -4334,7 +4330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -4421,7 +4417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -4450,7 +4446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -4479,7 +4475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -4537,7 +4533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -4566,7 +4562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4595,7 +4591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -4682,7 +4678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -4711,7 +4707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4769,7 +4765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
@@ -4827,7 +4823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -4856,7 +4852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -4885,7 +4881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -4914,7 +4910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -4972,7 +4968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -5088,7 +5084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -5175,7 +5171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -5204,7 +5200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -5233,7 +5229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -5320,7 +5316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -5349,7 +5345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -5407,7 +5403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -5465,7 +5461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -5552,7 +5548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -5581,7 +5577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -5668,7 +5664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -5697,7 +5693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5726,7 +5722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -5755,7 +5751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -5784,7 +5780,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>149</v>
       </c>
@@ -5813,7 +5809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -5871,7 +5867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>153</v>
       </c>
@@ -5900,7 +5896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -5929,7 +5925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>155</v>
       </c>
@@ -5958,7 +5954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -6016,7 +6012,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -6045,7 +6041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -6193,19 +6189,19 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -6231,7 +6227,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>409</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>390</v>
       </c>
@@ -6283,7 +6279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>338</v>
       </c>
@@ -6309,7 +6305,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>399</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>339</v>
       </c>
@@ -6361,7 +6357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>389</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>398</v>
       </c>
@@ -6413,7 +6409,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
@@ -6439,7 +6435,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>341</v>
       </c>
@@ -6465,7 +6461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>348</v>
       </c>
@@ -6491,7 +6487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>312</v>
       </c>
@@ -6543,7 +6539,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>309</v>
       </c>
@@ -6569,7 +6565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>319</v>
       </c>
@@ -6595,7 +6591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>355</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>324</v>
       </c>
@@ -6673,7 +6669,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>365</v>
       </c>
@@ -6699,7 +6695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>383</v>
       </c>
@@ -6725,7 +6721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>400</v>
       </c>
@@ -6751,7 +6747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>374</v>
       </c>
@@ -6777,7 +6773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>329</v>
       </c>
@@ -6803,7 +6799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>343</v>
       </c>
@@ -6829,7 +6825,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>318</v>
       </c>
@@ -6855,7 +6851,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>366</v>
       </c>
@@ -6881,7 +6877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>413</v>
       </c>
@@ -6907,7 +6903,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -6933,7 +6929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>349</v>
       </c>
@@ -6959,7 +6955,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>385</v>
       </c>
@@ -6985,7 +6981,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>416</v>
       </c>
@@ -7011,7 +7007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>369</v>
       </c>
@@ -7037,7 +7033,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>373</v>
       </c>
@@ -7063,7 +7059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>377</v>
       </c>
@@ -7089,7 +7085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -7115,7 +7111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>404</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>384</v>
       </c>
@@ -7167,7 +7163,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>376</v>
       </c>
@@ -7193,7 +7189,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>360</v>
       </c>
@@ -7219,7 +7215,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>358</v>
       </c>
@@ -7245,7 +7241,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>357</v>
       </c>
@@ -8847,19 +8843,19 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -8885,7 +8881,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
@@ -8911,7 +8907,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
@@ -8937,7 +8933,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
@@ -8963,7 +8959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>265</v>
       </c>
@@ -8989,7 +8985,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
@@ -9015,7 +9011,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>209</v>
       </c>
@@ -9119,7 +9115,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>235</v>
       </c>
@@ -9145,7 +9141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>193</v>
       </c>
@@ -9171,7 +9167,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
@@ -9197,7 +9193,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>911</v>
       </c>
@@ -9223,7 +9219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>280</v>
       </c>
@@ -9249,7 +9245,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>215</v>
       </c>
@@ -9275,7 +9271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>264</v>
       </c>
@@ -9301,7 +9297,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>233</v>
       </c>
@@ -9327,7 +9323,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -9353,7 +9349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>266</v>
       </c>
@@ -9379,7 +9375,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>256</v>
       </c>
@@ -9431,7 +9427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>225</v>
       </c>
@@ -9457,7 +9453,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -9483,7 +9479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>269</v>
       </c>
@@ -9509,7 +9505,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
@@ -9535,7 +9531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>226</v>
       </c>
@@ -9561,7 +9557,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -9587,7 +9583,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>218</v>
       </c>
@@ -9613,7 +9609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
@@ -9639,7 +9635,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
@@ -9665,7 +9661,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>279</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>221</v>
       </c>
@@ -9717,7 +9713,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>261</v>
       </c>
@@ -9743,7 +9739,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>276</v>
       </c>
@@ -9769,7 +9765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>276</v>
       </c>
@@ -9795,7 +9791,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>198</v>
       </c>
@@ -9821,7 +9817,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>253</v>
       </c>
@@ -9847,7 +9843,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>259</v>
       </c>
@@ -9873,7 +9869,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
@@ -9899,7 +9895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>210</v>
       </c>
@@ -9951,7 +9947,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>263</v>
       </c>
@@ -10003,7 +9999,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>267</v>
       </c>
@@ -10055,7 +10051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
@@ -10081,7 +10077,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>252</v>
       </c>
@@ -10133,7 +10129,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>277</v>
       </c>
@@ -10185,7 +10181,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>242</v>
       </c>
@@ -10211,7 +10207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -10263,7 +10259,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>206</v>
       </c>
@@ -10315,7 +10311,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>216</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
@@ -10393,7 +10389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -10445,7 +10441,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>248</v>
       </c>
@@ -10497,7 +10493,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>238</v>
       </c>
@@ -10549,7 +10545,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>281</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>208</v>
       </c>
@@ -10653,7 +10649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>251</v>
       </c>
@@ -10705,7 +10701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -10757,7 +10753,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>250</v>
       </c>
@@ -10809,7 +10805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>255</v>
       </c>
@@ -10861,7 +10857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>912</v>
       </c>
@@ -10913,7 +10909,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>173</v>
       </c>
@@ -10965,7 +10961,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>240</v>
       </c>
@@ -11017,7 +11013,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>236</v>
       </c>
@@ -11069,7 +11065,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>270</v>
       </c>
@@ -11095,7 +11091,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>243</v>
       </c>
@@ -11147,7 +11143,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>268</v>
       </c>
@@ -11199,7 +11195,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
@@ -11251,7 +11247,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>223</v>
       </c>
@@ -11303,7 +11299,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>247</v>
       </c>
@@ -11355,7 +11351,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>260</v>
       </c>
@@ -11407,7 +11403,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>275</v>
       </c>
@@ -11485,130 +11481,130 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11617,67 +11613,67 @@
     <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11686,67 +11682,67 @@
     <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11861,20 +11857,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>802</v>
       </c>
@@ -11920,7 +11916,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>805</v>
       </c>
@@ -11943,7 +11939,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>808</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>809</v>
       </c>
@@ -11989,7 +11985,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>811</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>812</v>
       </c>
@@ -12035,7 +12031,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>813</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>814</v>
       </c>
@@ -12081,7 +12077,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>815</v>
       </c>
@@ -12104,7 +12100,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>816</v>
       </c>
@@ -12127,7 +12123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>817</v>
       </c>
@@ -12150,7 +12146,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>818</v>
       </c>
@@ -12173,7 +12169,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>819</v>
       </c>
@@ -12196,7 +12192,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>821</v>
       </c>
@@ -12219,7 +12215,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>822</v>
       </c>
@@ -12242,7 +12238,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>823</v>
       </c>
@@ -12265,7 +12261,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>824</v>
       </c>
@@ -12288,7 +12284,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>825</v>
       </c>
@@ -12311,7 +12307,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>827</v>
       </c>
@@ -12334,7 +12330,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>828</v>
       </c>
@@ -12357,7 +12353,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>829</v>
       </c>
@@ -12380,7 +12376,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>830</v>
       </c>
@@ -12403,7 +12399,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>831</v>
       </c>
@@ -12426,7 +12422,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>832</v>
       </c>
@@ -12449,7 +12445,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>833</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>834</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>835</v>
       </c>
@@ -12518,7 +12514,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>836</v>
       </c>
@@ -12541,7 +12537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>837</v>
       </c>
@@ -12564,7 +12560,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>838</v>
       </c>
@@ -12587,7 +12583,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>839</v>
       </c>
@@ -12610,7 +12606,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>840</v>
       </c>
@@ -12633,7 +12629,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>841</v>
       </c>
@@ -12656,7 +12652,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>842</v>
       </c>
@@ -12679,7 +12675,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>843</v>
       </c>
@@ -12702,7 +12698,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>844</v>
       </c>
@@ -12725,7 +12721,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>846</v>
       </c>
@@ -12748,7 +12744,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>847</v>
       </c>
@@ -12771,7 +12767,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>848</v>
       </c>
@@ -12794,7 +12790,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>849</v>
       </c>
@@ -12817,7 +12813,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>850</v>
       </c>
@@ -12840,7 +12836,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>851</v>
       </c>
@@ -12863,7 +12859,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>852</v>
       </c>
@@ -12886,7 +12882,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>853</v>
       </c>
@@ -12909,7 +12905,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>854</v>
       </c>
@@ -12932,7 +12928,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>855</v>
       </c>
@@ -12955,7 +12951,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>856</v>
       </c>
@@ -12978,7 +12974,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>857</v>
       </c>
@@ -13001,7 +12997,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>858</v>
       </c>
@@ -13024,7 +13020,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>859</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>860</v>
       </c>
@@ -13070,7 +13066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>861</v>
       </c>
@@ -13093,7 +13089,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>862</v>
       </c>
@@ -13116,7 +13112,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>863</v>
       </c>
@@ -13139,7 +13135,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>864</v>
       </c>
@@ -13162,7 +13158,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>865</v>
       </c>
@@ -13185,7 +13181,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>866</v>
       </c>
@@ -13208,7 +13204,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>867</v>
       </c>
@@ -13231,7 +13227,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>868</v>
       </c>
@@ -13254,7 +13250,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>870</v>
       </c>
@@ -13277,7 +13273,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>871</v>
       </c>
@@ -13300,7 +13296,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>872</v>
       </c>
@@ -13323,7 +13319,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>873</v>
       </c>
@@ -13346,7 +13342,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>874</v>
       </c>
@@ -13369,7 +13365,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>875</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>876</v>
       </c>
@@ -13415,7 +13411,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>877</v>
       </c>
@@ -13438,7 +13434,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>878</v>
       </c>
@@ -13461,7 +13457,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>879</v>
       </c>
@@ -13484,7 +13480,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>880</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>881</v>
       </c>
@@ -13530,7 +13526,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>882</v>
       </c>
@@ -13553,7 +13549,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>883</v>
       </c>
@@ -13576,7 +13572,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>884</v>
       </c>
@@ -13599,7 +13595,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>885</v>
       </c>
@@ -13622,7 +13618,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>886</v>
       </c>
@@ -13645,7 +13641,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>887</v>
       </c>
@@ -13668,7 +13664,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>888</v>
       </c>
@@ -13691,7 +13687,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>889</v>
       </c>
@@ -13714,7 +13710,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>890</v>
       </c>
@@ -13737,7 +13733,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>891</v>
       </c>
@@ -13760,7 +13756,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>892</v>
       </c>
@@ -13783,7 +13779,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>893</v>
       </c>
@@ -13806,7 +13802,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>894</v>
       </c>
@@ -13829,7 +13825,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>895</v>
       </c>
@@ -13852,7 +13848,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>896</v>
       </c>
@@ -13875,7 +13871,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>897</v>
       </c>
@@ -13898,7 +13894,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>898</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>899</v>
       </c>
@@ -13944,7 +13940,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>900</v>
       </c>
@@ -13967,7 +13963,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>901</v>
       </c>
@@ -13990,7 +13986,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>902</v>
       </c>
@@ -14013,7 +14009,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>903</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>904</v>
       </c>
@@ -14059,7 +14055,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>905</v>
       </c>
@@ -14082,7 +14078,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>906</v>
       </c>
@@ -14105,7 +14101,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>907</v>
       </c>
@@ -14128,7 +14124,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>908</v>
       </c>
@@ -14151,7 +14147,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>909</v>
       </c>
@@ -14174,7 +14170,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>910</v>
       </c>
@@ -14214,19 +14210,19 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -14252,7 +14248,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>445</v>
       </c>
@@ -14278,7 +14274,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>532</v>
       </c>
@@ -14304,7 +14300,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>527</v>
       </c>
@@ -14330,7 +14326,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>545</v>
       </c>
@@ -14356,7 +14352,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>534</v>
       </c>
@@ -14382,7 +14378,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>501</v>
       </c>
@@ -14408,7 +14404,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>493</v>
       </c>
@@ -14434,7 +14430,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>525</v>
       </c>
@@ -14460,7 +14456,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>502</v>
       </c>
@@ -14486,7 +14482,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>539</v>
       </c>
@@ -14512,7 +14508,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>523</v>
       </c>
@@ -14538,7 +14534,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>483</v>
       </c>
@@ -14564,7 +14560,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>474</v>
       </c>
@@ -14590,7 +14586,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>511</v>
       </c>
@@ -14616,7 +14612,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -14642,7 +14638,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>490</v>
       </c>
@@ -14668,7 +14664,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>433</v>
       </c>
@@ -14694,7 +14690,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>517</v>
       </c>
@@ -14720,7 +14716,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>438</v>
       </c>
@@ -14746,7 +14742,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>449</v>
       </c>
@@ -14772,7 +14768,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>423</v>
       </c>
@@ -14798,7 +14794,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>447</v>
       </c>
@@ -14824,7 +14820,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>473</v>
       </c>
@@ -14850,7 +14846,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>496</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>469</v>
       </c>
@@ -14902,7 +14898,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>555</v>
       </c>
@@ -14928,7 +14924,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>498</v>
       </c>
@@ -14954,7 +14950,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>441</v>
       </c>
@@ -14980,7 +14976,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>556</v>
       </c>
@@ -15006,7 +15002,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>516</v>
       </c>
@@ -15032,7 +15028,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>504</v>
       </c>
@@ -15058,7 +15054,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>535</v>
       </c>
@@ -15084,7 +15080,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>462</v>
       </c>
@@ -15110,7 +15106,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>513</v>
       </c>
@@ -15136,7 +15132,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>480</v>
       </c>
@@ -15162,7 +15158,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>538</v>
       </c>
@@ -15188,7 +15184,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>521</v>
       </c>
@@ -15214,7 +15210,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>464</v>
       </c>
@@ -15240,7 +15236,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>560</v>
       </c>
@@ -15266,7 +15262,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>485</v>
       </c>
@@ -15292,7 +15288,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>548</v>
       </c>
@@ -15318,7 +15314,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>506</v>
       </c>
@@ -15344,7 +15340,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>509</v>
       </c>
@@ -15370,7 +15366,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>546</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>540</v>
       </c>
@@ -15422,7 +15418,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>543</v>
       </c>
@@ -16644,7 +16640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>460</v>
       </c>
@@ -16722,7 +16718,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>488</v>
       </c>
@@ -16877,25 +16873,25 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -16930,7 +16926,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>724</v>
       </c>
@@ -16965,7 +16961,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>650</v>
       </c>
@@ -17000,7 +16996,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>727</v>
       </c>
@@ -17035,7 +17031,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>775</v>
       </c>
@@ -17070,7 +17066,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>702</v>
       </c>
@@ -17105,7 +17101,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>632</v>
       </c>
@@ -17140,7 +17136,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>682</v>
       </c>
@@ -17175,7 +17171,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>688</v>
       </c>
@@ -17210,7 +17206,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>742</v>
       </c>
@@ -17245,7 +17241,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>783</v>
       </c>
@@ -17280,7 +17276,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>738</v>
       </c>
@@ -17315,7 +17311,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>637</v>
       </c>
@@ -17350,7 +17346,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>794</v>
       </c>
@@ -17385,7 +17381,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>745</v>
       </c>
@@ -17420,7 +17416,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>667</v>
       </c>
@@ -17455,7 +17451,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>661</v>
       </c>
@@ -17490,7 +17486,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>695</v>
       </c>
@@ -17525,7 +17521,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>774</v>
       </c>
@@ -17560,7 +17556,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>770</v>
       </c>
@@ -17595,7 +17591,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>713</v>
       </c>
@@ -17630,7 +17626,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -17665,7 +17661,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>741</v>
       </c>
@@ -17700,7 +17696,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>571</v>
       </c>
@@ -17735,7 +17731,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>753</v>
       </c>
@@ -17770,7 +17766,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>754</v>
       </c>
@@ -17805,7 +17801,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>678</v>
       </c>
@@ -17840,7 +17836,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>796</v>
       </c>
@@ -17875,7 +17871,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>740</v>
       </c>
@@ -17910,7 +17906,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>792</v>
       </c>
@@ -17945,7 +17941,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>596</v>
       </c>
@@ -17980,7 +17976,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>759</v>
       </c>
@@ -18015,7 +18011,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>672</v>
       </c>
@@ -18050,7 +18046,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>778</v>
       </c>
@@ -18085,7 +18081,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>766</v>
       </c>
@@ -18120,7 +18116,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>730</v>
       </c>
@@ -18155,7 +18151,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>639</v>
       </c>
@@ -18190,7 +18186,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>687</v>
       </c>
@@ -18225,7 +18221,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>640</v>
       </c>
@@ -18260,7 +18256,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -18295,7 +18291,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>699</v>
       </c>
@@ -18330,7 +18326,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>629</v>
       </c>
@@ -18365,7 +18361,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>705</v>
       </c>
@@ -18400,7 +18396,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>679</v>
       </c>
@@ -18435,7 +18431,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>619</v>
       </c>
@@ -18470,7 +18466,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>586</v>
       </c>
@@ -18505,7 +18501,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>649</v>
       </c>
@@ -18540,7 +18536,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>609</v>
       </c>
@@ -18575,7 +18571,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>686</v>
       </c>
@@ -18610,7 +18606,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>797</v>
       </c>
@@ -18645,7 +18641,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>743</v>
       </c>
@@ -18680,7 +18676,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>718</v>
       </c>
@@ -18715,7 +18711,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>771</v>
       </c>
@@ -18750,7 +18746,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>612</v>
       </c>
@@ -18785,7 +18781,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>583</v>
       </c>
@@ -18820,7 +18816,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>665</v>
       </c>
@@ -18855,7 +18851,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>608</v>
       </c>
@@ -18890,7 +18886,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>704</v>
       </c>
@@ -18925,7 +18921,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>576</v>
       </c>
@@ -18960,7 +18956,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>668</v>
       </c>
@@ -18995,7 +18991,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>684</v>
       </c>
@@ -19030,7 +19026,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>772</v>
       </c>
@@ -19065,7 +19061,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>698</v>
       </c>
@@ -19100,7 +19096,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>666</v>
       </c>
@@ -19135,7 +19131,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>795</v>
       </c>
@@ -19170,7 +19166,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>593</v>
       </c>
@@ -19205,7 +19201,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>773</v>
       </c>
@@ -19240,7 +19236,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>578</v>
       </c>
@@ -19275,7 +19271,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>752</v>
       </c>
@@ -19310,7 +19306,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>701</v>
       </c>
@@ -19345,7 +19341,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>784</v>
       </c>
@@ -19380,7 +19376,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>601</v>
       </c>
@@ -19415,7 +19411,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>674</v>
       </c>
@@ -19450,7 +19446,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>776</v>
       </c>
@@ -19485,7 +19481,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>689</v>
       </c>
@@ -19520,7 +19516,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>723</v>
       </c>
@@ -19555,7 +19551,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>779</v>
       </c>
@@ -19590,7 +19586,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>758</v>
       </c>
@@ -19625,7 +19621,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>691</v>
       </c>
@@ -19660,7 +19656,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>697</v>
       </c>
@@ -19695,7 +19691,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>710</v>
       </c>
@@ -19730,7 +19726,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>635</v>
       </c>
@@ -19765,7 +19761,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>761</v>
       </c>
@@ -19800,7 +19796,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>746</v>
       </c>
@@ -19835,7 +19831,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>734</v>
       </c>
@@ -19870,7 +19866,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>627</v>
       </c>
@@ -19905,7 +19901,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>782</v>
       </c>
@@ -19940,7 +19936,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>744</v>
       </c>
@@ -19975,7 +19971,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>693</v>
       </c>
@@ -20010,7 +20006,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>692</v>
       </c>
@@ -20045,7 +20041,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>768</v>
       </c>
@@ -20080,7 +20076,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>765</v>
       </c>
@@ -20115,7 +20111,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>790</v>
       </c>
@@ -20150,7 +20146,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>703</v>
       </c>
@@ -20185,7 +20181,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>760</v>
       </c>
@@ -20220,7 +20216,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>731</v>
       </c>
@@ -20255,7 +20251,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>708</v>
       </c>
@@ -20290,7 +20286,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>641</v>
       </c>
@@ -20325,7 +20321,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>714</v>
       </c>
@@ -20360,7 +20356,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>670</v>
       </c>
@@ -20395,7 +20391,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>786</v>
       </c>

--- a/pcmaker/Components.xlsx
+++ b/pcmaker/Components.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1B22B5C8-6D56-43B3-9FFA-9E799EFF2FDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F2B48314-E5A8-48EE-A7A8-4FEC4553A77D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21675" windowHeight="16500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21705" windowHeight="16500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Video Card'!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:V20"/>
+  <oleSize ref="A1:U18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7267,7 +7267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>303</v>
       </c>
@@ -8839,7 +8839,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -16873,7 +16873,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
